--- a/Data/EC/NIT-9013954686.xlsx
+++ b/Data/EC/NIT-9013954686.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3094439-BF73-45B9-8BBA-989AF1C5473E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55500CF9-EA1F-493A-A64A-E046D87F027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6E8332FB-A7F6-4ED3-AFEC-47D7A81FCC7B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{586A15FD-BB0E-4716-AA47-0083871EB17B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="75">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,13 +65,157 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73212078</t>
+  </si>
+  <si>
+    <t>BREINER ALFONSO CANTERO VARGAS</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>73107710</t>
+  </si>
+  <si>
+    <t>JUSTINIANO DE AVILA BERRIO</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>73198539</t>
+  </si>
+  <si>
+    <t>AGUSTIN GUERRERO ROMERO</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>73350886</t>
+  </si>
+  <si>
+    <t>MANUEL RUBEN GARCIA MUÑOZ</t>
+  </si>
+  <si>
+    <t>1143380798</t>
+  </si>
+  <si>
+    <t>JUAN DAVID ARZUZA CAÑATES</t>
+  </si>
+  <si>
+    <t>73226541</t>
+  </si>
+  <si>
+    <t>FABIO LEONARDO ROMERO MERCADO</t>
+  </si>
+  <si>
+    <t>73158336</t>
+  </si>
+  <si>
+    <t>MANUEL ENRIQUE COGOLLO RUIZ</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>1143359947</t>
+  </si>
+  <si>
+    <t>EDGAR VALDEZ PINTO</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>9104186</t>
+  </si>
+  <si>
+    <t>JAIME BELLIDO BARRIOS</t>
+  </si>
+  <si>
+    <t>73126906</t>
+  </si>
+  <si>
+    <t>LINO FLOREZ MONTERROZA</t>
+  </si>
+  <si>
+    <t>1070817647</t>
+  </si>
+  <si>
+    <t>VICTOR MANUEL RAMOS BANQUET</t>
+  </si>
+  <si>
     <t>8851287</t>
   </si>
   <si>
     <t>JOSE CORTES QUIROS</t>
   </si>
   <si>
-    <t>2105</t>
+    <t>1010084157</t>
+  </si>
+  <si>
+    <t>YONIS CASTILLO ARIAS</t>
+  </si>
+  <si>
+    <t>1047437461</t>
+  </si>
+  <si>
+    <t>ELVIRA DEL CARMEN PEÑARANDA APONTE</t>
+  </si>
+  <si>
+    <t>18880541</t>
+  </si>
+  <si>
+    <t>BADITH GUERRA PALENCIA</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1050965895</t>
+  </si>
+  <si>
+    <t>ANDRES DAVID TORRES ELLES</t>
+  </si>
+  <si>
+    <t>1050968272</t>
+  </si>
+  <si>
+    <t>CRISTINA EDULIA RHENALS AGRESOTH</t>
+  </si>
+  <si>
+    <t>1088251457</t>
+  </si>
+  <si>
+    <t>LUZ ANDREA VAHOS MIRANDA</t>
   </si>
   <si>
     <t>19955183</t>
@@ -80,130 +224,10 @@
     <t>JADER LUIS VERGARA QUIROZ</t>
   </si>
   <si>
-    <t>1143359947</t>
-  </si>
-  <si>
-    <t>EDGAR VALDEZ PINTO</t>
-  </si>
-  <si>
-    <t>1010084157</t>
-  </si>
-  <si>
-    <t>YONIS CASTILLO ARIAS</t>
-  </si>
-  <si>
-    <t>73126906</t>
-  </si>
-  <si>
-    <t>LINO FLOREZ MONTERROZA</t>
-  </si>
-  <si>
-    <t>9104186</t>
-  </si>
-  <si>
-    <t>JAIME BELLIDO BARRIOS</t>
-  </si>
-  <si>
     <t>17803207</t>
   </si>
   <si>
     <t>AURELIO NARVAEZ TERAN</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>73212078</t>
-  </si>
-  <si>
-    <t>BREINER ALFONSO CANTERO VARGAS</t>
-  </si>
-  <si>
-    <t>73226541</t>
-  </si>
-  <si>
-    <t>FABIO LEONARDO ROMERO MERCADO</t>
-  </si>
-  <si>
-    <t>1143380798</t>
-  </si>
-  <si>
-    <t>JUAN DAVID ARZUZA CAÑATES</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>18880541</t>
-  </si>
-  <si>
-    <t>BADITH GUERRA PALENCIA</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>1088251457</t>
-  </si>
-  <si>
-    <t>LUZ ANDREA VAHOS MIRANDA</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>1050965895</t>
-  </si>
-  <si>
-    <t>ANDRES DAVID TORRES ELLES</t>
-  </si>
-  <si>
-    <t>1050968272</t>
-  </si>
-  <si>
-    <t>CRISTINA EDULIA RHENALS AGRESOTH</t>
-  </si>
-  <si>
-    <t>73198539</t>
-  </si>
-  <si>
-    <t>AGUSTIN GUERRERO ROMERO</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>73158336</t>
-  </si>
-  <si>
-    <t>MANUEL ENRIQUE COGOLLO RUIZ</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -617,7 +641,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC1A53F1-91B1-DE83-19EC-3810B5511D32}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4E1E3C-8124-FD0A-F136-5F30C93A4F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -968,8 +992,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0817D8-8384-4511-BA1A-1F703CF4C528}">
-  <dimension ref="B2:J65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C629B0-0014-4567-A1CF-16F66AADB209}">
+  <dimension ref="B2:J69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -980,7 +1004,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -993,7 +1017,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1038,7 +1062,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1070,12 +1094,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1766481</v>
+        <v>1946481</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1086,14 +1110,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F13" s="5">
         <v>15</v>
@@ -1123,13 +1147,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1146,7 +1170,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>36341</v>
+        <v>18170</v>
       </c>
       <c r="G16" s="18">
         <v>908526</v>
@@ -1160,16 +1184,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>12114</v>
+        <v>32707</v>
       </c>
       <c r="G17" s="18">
         <v>908526</v>
@@ -1183,19 +1207,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F18" s="18">
-        <v>18170</v>
+        <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>908526</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1212,13 +1236,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>12114</v>
+        <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1229,19 +1253,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F20" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G20" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1252,19 +1276,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F21" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1275,19 +1299,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>8480</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1298,19 +1322,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>32707</v>
+        <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1321,19 +1345,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1344,19 +1368,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
-        <v>32707</v>
+        <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1367,13 +1391,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>28</v>
-      </c>
       <c r="E26" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18">
         <v>18170</v>
@@ -1390,16 +1414,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
-        <v>18170</v>
+        <v>32707</v>
       </c>
       <c r="G27" s="18">
         <v>908526</v>
@@ -1413,13 +1437,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>30</v>
-      </c>
       <c r="E28" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
         <v>18170</v>
@@ -1436,19 +1460,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="F29" s="18">
-        <v>48000</v>
+        <v>36341</v>
       </c>
       <c r="G29" s="18">
-        <v>1200000</v>
+        <v>908526</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1459,19 +1483,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>35</v>
-      </c>
       <c r="F30" s="18">
-        <v>48000</v>
+        <v>35574</v>
       </c>
       <c r="G30" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1482,19 +1506,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F31" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G31" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1505,19 +1529,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F32" s="18">
-        <v>56000</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>1400000</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1528,19 +1552,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F33" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1551,19 +1575,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="F34" s="18">
-        <v>48000</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1574,19 +1598,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F35" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G35" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1597,19 +1621,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F36" s="18">
-        <v>56000</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1400000</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1626,13 +1650,13 @@
         <v>37</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F37" s="18">
-        <v>40000</v>
+        <v>18170</v>
       </c>
       <c r="G37" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1643,19 +1667,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F38" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G38" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1666,19 +1690,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G39" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1689,19 +1713,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F40" s="18">
-        <v>56000</v>
+        <v>40000</v>
       </c>
       <c r="G40" s="18">
-        <v>1400000</v>
+        <v>1000000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1712,19 +1736,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F41" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G41" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1735,19 +1759,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>12114</v>
       </c>
       <c r="G42" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1758,13 +1782,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="F43" s="18">
         <v>60000</v>
@@ -1781,19 +1805,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F44" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G44" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1804,19 +1828,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F45" s="18">
-        <v>56000</v>
+        <v>48000</v>
       </c>
       <c r="G45" s="18">
-        <v>1400000</v>
+        <v>1200000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1827,19 +1851,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F46" s="18">
-        <v>40000</v>
+        <v>48000</v>
       </c>
       <c r="G46" s="18">
-        <v>1000000</v>
+        <v>1200000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1850,19 +1874,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="F47" s="18">
-        <v>46400</v>
+        <v>56000</v>
       </c>
       <c r="G47" s="18">
-        <v>1160000</v>
+        <v>1400000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1873,19 +1897,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F48" s="18">
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="G48" s="18">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1896,13 +1920,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F49" s="18">
         <v>56000</v>
@@ -1919,19 +1943,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F50" s="18">
-        <v>46400</v>
+        <v>56000</v>
       </c>
       <c r="G50" s="18">
-        <v>1160000</v>
+        <v>1400000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1942,19 +1966,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="F51" s="18">
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="G51" s="18">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1965,19 +1989,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F52" s="18">
-        <v>40000</v>
+        <v>56000</v>
       </c>
       <c r="G52" s="18">
-        <v>1000000</v>
+        <v>1400000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -1988,19 +2012,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="F53" s="18">
-        <v>56000</v>
+        <v>60000</v>
       </c>
       <c r="G53" s="18">
-        <v>1400000</v>
+        <v>1500000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2011,19 +2035,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="F54" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G54" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2034,19 +2058,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="F55" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G55" s="18">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2057,19 +2081,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="F56" s="18">
-        <v>46400</v>
+        <v>36341</v>
       </c>
       <c r="G56" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2080,19 +2104,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="F57" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G57" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2103,75 +2127,167 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F58" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G58" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59" s="24">
-        <v>35574</v>
-      </c>
-      <c r="G59" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="26"/>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B64" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="32"/>
-      <c r="H64" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B65" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="32"/>
-      <c r="H65" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
+      <c r="B59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="20"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="20"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G61" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="20"/>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B62" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="18">
+        <v>12114</v>
+      </c>
+      <c r="G62" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="20"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B63" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="24">
+        <v>8480</v>
+      </c>
+      <c r="G63" s="24">
+        <v>908526</v>
+      </c>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="26"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B68" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="32"/>
+      <c r="H68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B69" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C69" s="32"/>
+      <c r="H69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H68:J68"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9013954686.xlsx
+++ b/Data/EC/NIT-9013954686.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55500CF9-EA1F-493A-A64A-E046D87F027C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A815417-8F7E-4E3C-95AC-6840BF0BE95B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{586A15FD-BB0E-4716-AA47-0083871EB17B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B73345AA-1D9D-46EE-BDC0-B9F6B96126BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="67">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,169 +65,145 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1143359947</t>
+  </si>
+  <si>
+    <t>EDGAR VALDEZ PINTO</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>9104186</t>
+  </si>
+  <si>
+    <t>JAIME BELLIDO BARRIOS</t>
+  </si>
+  <si>
+    <t>73126906</t>
+  </si>
+  <si>
+    <t>LINO FLOREZ MONTERROZA</t>
+  </si>
+  <si>
+    <t>8851287</t>
+  </si>
+  <si>
+    <t>JOSE CORTES QUIROS</t>
+  </si>
+  <si>
+    <t>1010084157</t>
+  </si>
+  <si>
+    <t>YONIS CASTILLO ARIAS</t>
+  </si>
+  <si>
+    <t>19955183</t>
+  </si>
+  <si>
+    <t>JADER LUIS VERGARA QUIROZ</t>
+  </si>
+  <si>
     <t>73212078</t>
   </si>
   <si>
     <t>BREINER ALFONSO CANTERO VARGAS</t>
   </si>
   <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>1143380798</t>
+  </si>
+  <si>
+    <t>JUAN DAVID ARZUZA CAÑATES</t>
+  </si>
+  <si>
+    <t>73226541</t>
+  </si>
+  <si>
+    <t>FABIO LEONARDO ROMERO MERCADO</t>
+  </si>
+  <si>
+    <t>17803207</t>
+  </si>
+  <si>
+    <t>AURELIO NARVAEZ TERAN</t>
+  </si>
+  <si>
     <t>2107</t>
   </si>
   <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>73107710</t>
-  </si>
-  <si>
-    <t>JUSTINIANO DE AVILA BERRIO</t>
+    <t>18880541</t>
+  </si>
+  <si>
+    <t>BADITH GUERRA PALENCIA</t>
   </si>
   <si>
     <t>2211</t>
   </si>
   <si>
+    <t>2212</t>
+  </si>
+  <si>
     <t>73198539</t>
   </si>
   <si>
     <t>AGUSTIN GUERRERO ROMERO</t>
   </si>
   <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>1050965895</t>
+  </si>
+  <si>
+    <t>ANDRES DAVID TORRES ELLES</t>
+  </si>
+  <si>
+    <t>1050968272</t>
+  </si>
+  <si>
+    <t>CRISTINA EDULIA RHENALS AGRESOTH</t>
+  </si>
+  <si>
+    <t>1088251457</t>
+  </si>
+  <si>
+    <t>LUZ ANDREA VAHOS MIRANDA</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>73158336</t>
+  </si>
+  <si>
+    <t>MANUEL ENRIQUE COGOLLO RUIZ</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
     <t>2306</t>
   </si>
   <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>73350886</t>
-  </si>
-  <si>
-    <t>MANUEL RUBEN GARCIA MUÑOZ</t>
-  </si>
-  <si>
-    <t>1143380798</t>
-  </si>
-  <si>
-    <t>JUAN DAVID ARZUZA CAÑATES</t>
-  </si>
-  <si>
-    <t>73226541</t>
-  </si>
-  <si>
-    <t>FABIO LEONARDO ROMERO MERCADO</t>
-  </si>
-  <si>
-    <t>73158336</t>
-  </si>
-  <si>
-    <t>MANUEL ENRIQUE COGOLLO RUIZ</t>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
   </si>
   <si>
     <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>1143359947</t>
-  </si>
-  <si>
-    <t>EDGAR VALDEZ PINTO</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>9104186</t>
-  </si>
-  <si>
-    <t>JAIME BELLIDO BARRIOS</t>
-  </si>
-  <si>
-    <t>73126906</t>
-  </si>
-  <si>
-    <t>LINO FLOREZ MONTERROZA</t>
-  </si>
-  <si>
-    <t>1070817647</t>
-  </si>
-  <si>
-    <t>VICTOR MANUEL RAMOS BANQUET</t>
-  </si>
-  <si>
-    <t>8851287</t>
-  </si>
-  <si>
-    <t>JOSE CORTES QUIROS</t>
-  </si>
-  <si>
-    <t>1010084157</t>
-  </si>
-  <si>
-    <t>YONIS CASTILLO ARIAS</t>
-  </si>
-  <si>
-    <t>1047437461</t>
-  </si>
-  <si>
-    <t>ELVIRA DEL CARMEN PEÑARANDA APONTE</t>
-  </si>
-  <si>
-    <t>18880541</t>
-  </si>
-  <si>
-    <t>BADITH GUERRA PALENCIA</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>1050965895</t>
-  </si>
-  <si>
-    <t>ANDRES DAVID TORRES ELLES</t>
-  </si>
-  <si>
-    <t>1050968272</t>
-  </si>
-  <si>
-    <t>CRISTINA EDULIA RHENALS AGRESOTH</t>
-  </si>
-  <si>
-    <t>1088251457</t>
-  </si>
-  <si>
-    <t>LUZ ANDREA VAHOS MIRANDA</t>
-  </si>
-  <si>
-    <t>19955183</t>
-  </si>
-  <si>
-    <t>JADER LUIS VERGARA QUIROZ</t>
-  </si>
-  <si>
-    <t>17803207</t>
-  </si>
-  <si>
-    <t>AURELIO NARVAEZ TERAN</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -326,7 +302,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -339,9 +317,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -541,23 +517,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,10 +561,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,7 +617,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4E1E3C-8124-FD0A-F136-5F30C93A4F04}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D92EE98-371E-9352-C06F-C94347A669AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -992,8 +968,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C629B0-0014-4567-A1CF-16F66AADB209}">
-  <dimension ref="B2:J69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146012DF-0526-4679-8187-264A5AF6DB8B}">
+  <dimension ref="B2:J65"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1004,7 +980,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1017,7 +993,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1062,7 +1038,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1094,12 +1070,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1946481</v>
+        <v>1766481</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1110,14 +1086,14 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C13" s="5">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F13" s="5">
         <v>15</v>
@@ -1147,13 +1123,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1184,16 +1160,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>32707</v>
+        <v>36341</v>
       </c>
       <c r="G17" s="18">
         <v>908526</v>
@@ -1207,19 +1183,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G18" s="18">
-        <v>828116</v>
+        <v>908526</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1236,13 +1212,13 @@
         <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1253,19 +1229,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>40000</v>
+        <v>12114</v>
       </c>
       <c r="G20" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1276,19 +1252,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>12114</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1299,19 +1275,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>32707</v>
       </c>
       <c r="G22" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1322,19 +1298,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>32707</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1345,19 +1321,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F24" s="18">
-        <v>40000</v>
+        <v>36341</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1368,19 +1344,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>23</v>
-      </c>
       <c r="F25" s="18">
-        <v>40000</v>
+        <v>8480</v>
       </c>
       <c r="G25" s="18">
-        <v>1000000</v>
+        <v>908526</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1391,13 +1367,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F26" s="18">
         <v>18170</v>
@@ -1414,16 +1390,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>27</v>
-      </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F27" s="18">
-        <v>32707</v>
+        <v>18170</v>
       </c>
       <c r="G27" s="18">
         <v>908526</v>
@@ -1437,13 +1413,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="17" t="s">
-        <v>29</v>
-      </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F28" s="18">
         <v>18170</v>
@@ -1460,19 +1436,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F29" s="18">
-        <v>36341</v>
+        <v>48000</v>
       </c>
       <c r="G29" s="18">
-        <v>908526</v>
+        <v>877803</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1483,19 +1459,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F30" s="18">
-        <v>35574</v>
+        <v>48000</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1506,19 +1482,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F31" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G31" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1529,19 +1505,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F32" s="18">
-        <v>46400</v>
+        <v>48000</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>877803</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1552,19 +1528,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F33" s="18">
-        <v>46400</v>
+        <v>56000</v>
       </c>
       <c r="G33" s="18">
-        <v>1160000</v>
+        <v>1400000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1575,19 +1551,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="F34" s="18">
-        <v>46400</v>
+        <v>60000</v>
       </c>
       <c r="G34" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1598,19 +1574,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F35" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G35" s="18">
-        <v>1160000</v>
+        <v>908526</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1621,19 +1597,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F36" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>1160000</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1644,19 +1620,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F37" s="18">
-        <v>18170</v>
+        <v>56000</v>
       </c>
       <c r="G37" s="18">
-        <v>908526</v>
+        <v>1400000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1667,19 +1643,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F38" s="18">
-        <v>36341</v>
+        <v>60000</v>
       </c>
       <c r="G38" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1690,16 +1666,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F39" s="18">
-        <v>36341</v>
+        <v>40000</v>
       </c>
       <c r="G39" s="18">
         <v>908526</v>
@@ -1713,13 +1689,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="F40" s="18">
         <v>40000</v>
@@ -1736,19 +1712,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="F41" s="18">
-        <v>36341</v>
+        <v>56000</v>
       </c>
       <c r="G41" s="18">
-        <v>908526</v>
+        <v>1400000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1759,19 +1735,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F42" s="18">
-        <v>12114</v>
+        <v>60000</v>
       </c>
       <c r="G42" s="18">
-        <v>908526</v>
+        <v>1500000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1782,19 +1758,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="F43" s="18">
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1805,19 +1781,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F44" s="18">
-        <v>48000</v>
+        <v>40000</v>
       </c>
       <c r="G44" s="18">
-        <v>1200000</v>
+        <v>1000000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1828,19 +1804,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F45" s="18">
-        <v>48000</v>
+        <v>46400</v>
       </c>
       <c r="G45" s="18">
-        <v>1200000</v>
+        <v>1160000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1851,19 +1827,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="F46" s="18">
-        <v>48000</v>
+        <v>56000</v>
       </c>
       <c r="G46" s="18">
-        <v>1200000</v>
+        <v>1400000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1874,19 +1850,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="F47" s="18">
-        <v>56000</v>
+        <v>40000</v>
       </c>
       <c r="G47" s="18">
-        <v>1400000</v>
+        <v>908526</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1897,19 +1873,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F48" s="18">
-        <v>56000</v>
+        <v>40000</v>
       </c>
       <c r="G48" s="18">
-        <v>1400000</v>
+        <v>1000000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1920,19 +1896,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F49" s="18">
-        <v>56000</v>
+        <v>46400</v>
       </c>
       <c r="G49" s="18">
-        <v>1400000</v>
+        <v>1160000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1943,13 +1919,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="F50" s="18">
         <v>56000</v>
@@ -1966,19 +1942,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F51" s="18">
-        <v>56000</v>
+        <v>40000</v>
       </c>
       <c r="G51" s="18">
-        <v>1400000</v>
+        <v>908526</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1989,19 +1965,19 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F52" s="18">
-        <v>56000</v>
+        <v>40000</v>
       </c>
       <c r="G52" s="18">
-        <v>1400000</v>
+        <v>1000000</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2012,19 +1988,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="F53" s="18">
-        <v>60000</v>
+        <v>46400</v>
       </c>
       <c r="G53" s="18">
-        <v>1500000</v>
+        <v>1160000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2035,19 +2011,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="F54" s="18">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="G54" s="18">
-        <v>1500000</v>
+        <v>1400000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2058,19 +2034,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
-        <v>60000</v>
+        <v>36341</v>
       </c>
       <c r="G55" s="18">
-        <v>1500000</v>
+        <v>908526</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2081,19 +2057,19 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
-        <v>36341</v>
+        <v>46400</v>
       </c>
       <c r="G56" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2104,19 +2080,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G57" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2127,167 +2103,75 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
-        <v>40000</v>
+        <v>46400</v>
       </c>
       <c r="G58" s="18">
-        <v>1000000</v>
+        <v>1160000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G59" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="20"/>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B60" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G60" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="20"/>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B61" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F61" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G61" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="18">
-        <v>12114</v>
-      </c>
-      <c r="G62" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="24">
-        <v>8480</v>
-      </c>
-      <c r="G63" s="24">
-        <v>908526</v>
-      </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="26"/>
-    </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B68" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" s="32"/>
-      <c r="H68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="H69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
+      <c r="B59" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="24">
+        <v>35574</v>
+      </c>
+      <c r="G59" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="26"/>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B64" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="32"/>
+      <c r="H64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B65" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="32"/>
+      <c r="H65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H64:J64"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
